--- a/results/Kafka_Results.xlsx
+++ b/results/Kafka_Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JNEATE\Documents\IKEA\Kafka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\Event-Hub-PoC\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11024EB2-A762-4BC2-A7EF-3BCA7B1D79D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E138D-A4C0-4B02-8F44-806AF92314C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="456" windowWidth="28284" windowHeight="17076" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Concurrent Threads</t>
   </si>
@@ -88,7 +88,7 @@
     <t>PEND</t>
   </si>
   <si>
-    <t>WIP</t>
+    <t>103m 7s</t>
   </si>
 </sst>
 </file>
@@ -97,8 +97,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -116,18 +116,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,18 +137,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -444,7 +437,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -509,11 +502,11 @@
         <v>10.9</v>
       </c>
       <c r="E2">
-        <f>B2*C2</f>
+        <f t="shared" ref="E2:E9" si="0">B2*C2</f>
         <v>1000</v>
       </c>
       <c r="F2" s="4">
-        <f>(D2*E2)/1024</f>
+        <f t="shared" ref="F2:F9" si="1">(D2*E2)/1024</f>
         <v>10.64453125</v>
       </c>
       <c r="G2" t="s">
@@ -547,11 +540,11 @@
         <v>10.9</v>
       </c>
       <c r="E3" s="2">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="F3" s="4">
-        <f>(D3*E3)/1024</f>
+        <f t="shared" si="1"/>
         <v>1064.453125</v>
       </c>
       <c r="G3" t="s">
@@ -572,7 +565,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A6" si="0">A3+1</f>
+        <f t="shared" ref="A4:A6" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -585,11 +578,11 @@
         <v>10.9</v>
       </c>
       <c r="E4" s="2">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="F4" s="4">
-        <f>(D4*E4)/1024</f>
+        <f t="shared" si="1"/>
         <v>106.4453125</v>
       </c>
       <c r="G4" t="s">
@@ -610,7 +603,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -623,50 +616,50 @@
         <v>10.9</v>
       </c>
       <c r="E5" s="2">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="F5" s="4">
-        <f>(D5*E5)/1024</f>
+        <f t="shared" si="1"/>
         <v>1064.453125</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>19</v>
+      <c r="H5" s="1">
+        <v>812</v>
+      </c>
+      <c r="I5" s="1">
+        <v>891</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1551</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3097</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>150</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>100</v>
-      </c>
-      <c r="E6" s="2">
-        <f>B6*C6</f>
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <f>(D6*E6)/1024</f>
-        <v>9.765625E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.146484375</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -695,15 +688,15 @@
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E7" s="2">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F7" s="4">
-        <f>(D7*E7)/1024</f>
-        <v>0.9765625</v>
+        <f t="shared" si="1"/>
+        <v>1.46484375</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -732,15 +725,15 @@
         <v>100</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E8" s="2">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="F8" s="4">
-        <f>(D8*E8)/1024</f>
-        <v>97.65625</v>
+        <f t="shared" si="1"/>
+        <v>146.484375</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -769,15 +762,15 @@
         <v>1000</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E9" s="2">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="F9" s="4">
-        <f>(D9*E9)/1024</f>
-        <v>976.5625</v>
+        <f t="shared" si="1"/>
+        <v>1464.84375</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -878,7 +871,7 @@
       <c r="C2" s="2">
         <v>10000</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f>B2*C2</f>
         <v>10000</v>
       </c>
@@ -919,7 +912,7 @@
       <c r="C3" s="2">
         <v>10000</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f>B3*C3</f>
         <v>10000</v>
       </c>
@@ -967,66 +960,66 @@
       <c r="L4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/Kafka_Results.xlsx
+++ b/results/Kafka_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\Event-Hub-PoC\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E138D-A4C0-4B02-8F44-806AF92314C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237A4FDA-6234-496E-AD74-5883826D854B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="456" windowWidth="28284" windowHeight="17076" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,8 +28,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Neate, James</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{4CD1EB67-0194-4333-8582-06D632CC43C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neate, James:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+130 messages not sent due to timeout (Timeout is configurable, at present set to 30,000)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Concurrent Threads</t>
   </si>
@@ -85,10 +119,22 @@
     <t>170m 13s</t>
   </si>
   <si>
-    <t>PEND</t>
-  </si>
-  <si>
     <t>103m 7s</t>
+  </si>
+  <si>
+    <t>3.5s</t>
+  </si>
+  <si>
+    <t>67.02s</t>
+  </si>
+  <si>
+    <t>42.86s</t>
+  </si>
+  <si>
+    <t>5m 57s</t>
+  </si>
+  <si>
+    <t>58m 40s</t>
   </si>
 </sst>
 </file>
@@ -100,7 +146,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +160,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -433,11 +492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B76EB94-AFFE-4585-86FD-A1A0ACF1D6F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B76EB94-AFFE-4585-86FD-A1A0ACF1D6F6}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G10" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -506,7 +565,7 @@
         <v>1000</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F9" si="1">(D2*E2)/1024</f>
+        <f t="shared" ref="F2:F10" si="1">(D2*E2)/1024</f>
         <v>10.64453125</v>
       </c>
       <c r="G2" t="s">
@@ -624,7 +683,7 @@
         <v>1064.453125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1">
         <v>812</v>
@@ -651,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>150</v>
+        <v>101.8</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
@@ -659,22 +718,22 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>0.146484375</v>
+        <v>9.9414062499999997E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3565</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3565</v>
+      </c>
+      <c r="J6">
+        <v>3565</v>
+      </c>
+      <c r="K6">
+        <v>3565</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -688,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>150</v>
+        <v>101.8</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
@@ -696,22 +755,22 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>1.46484375</v>
+        <v>0.994140625</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>7195</v>
+      </c>
+      <c r="I7">
+        <v>7195</v>
+      </c>
+      <c r="J7">
+        <v>7195</v>
+      </c>
+      <c r="K7">
+        <v>7195</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -722,33 +781,33 @@
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>150</v>
+        <v>101.8</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>146.484375</v>
+        <v>0.994140625</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>36108</v>
+      </c>
+      <c r="I8">
+        <v>36108</v>
+      </c>
+      <c r="J8">
+        <v>36108</v>
+      </c>
+      <c r="K8">
+        <v>36108</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -759,33 +818,70 @@
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>150</v>
+        <v>101.8</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>1464.84375</v>
+        <v>9.94140625</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>36672</v>
+      </c>
+      <c r="I9">
+        <v>37300</v>
+      </c>
+      <c r="J9">
+        <v>44885</v>
+      </c>
+      <c r="K9">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>101.8</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10" si="3">B10*C10</f>
+        <v>1000</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>99.4140625</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>36635</v>
+      </c>
+      <c r="I10">
+        <v>37010</v>
+      </c>
+      <c r="J10">
+        <v>37666</v>
+      </c>
+      <c r="K10">
+        <v>42328</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -797,6 +893,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/results/Kafka_Results.xlsx
+++ b/results/Kafka_Results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\Event-Hub-PoC\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237A4FDA-6234-496E-AD74-5883826D854B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB25057-812F-401B-86AA-9AFC9DA01F1A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="456" windowWidth="28284" windowHeight="17076" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="456" windowWidth="28284" windowHeight="17076" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1 Large Results - POST" sheetId="6" r:id="rId1"/>
     <sheet name="S1 Large Results - GET" sheetId="7" r:id="rId2"/>
+    <sheet name="Scenario 2" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Concurrent Threads</t>
   </si>
@@ -135,6 +136,90 @@
   </si>
   <si>
     <t>58m 40s</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Consumer: UP</t>
+  </si>
+  <si>
+    <t>Producer: UP</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Record Count</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>Finish Time</t>
+  </si>
+  <si>
+    <t>Time to First Message</t>
+  </si>
+  <si>
+    <t>Time to Last Message</t>
+  </si>
+  <si>
+    <t>126m 34s</t>
+  </si>
+  <si>
+    <t>1m 17s</t>
+  </si>
+  <si>
+    <t>12m 34s</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Producer: DOWN</t>
+  </si>
+  <si>
+    <t>Consumer: DOWN</t>
+  </si>
+  <si>
+    <t>1m 13s</t>
+  </si>
+  <si>
+    <t>12m 20s</t>
+  </si>
+  <si>
+    <t>130m 47s</t>
+  </si>
+  <si>
+    <t>1m 10s</t>
+  </si>
+  <si>
+    <t>12m 22s</t>
+  </si>
+  <si>
+    <t>Rows per second</t>
+  </si>
+  <si>
+    <t>2ms</t>
+  </si>
+  <si>
+    <t>10ms</t>
+  </si>
+  <si>
+    <t>Producer Record Load Time</t>
+  </si>
+  <si>
+    <t>11ms</t>
+  </si>
+  <si>
+    <t>124m 38s</t>
   </si>
 </sst>
 </file>
@@ -175,12 +260,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -207,6 +298,8 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -495,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B76EB94-AFFE-4585-86FD-A1A0ACF1D6F6}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1122,4 +1215,417 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FD0412-5CEA-4D8B-8200-D89F9F362FA5}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <f>B4/77</f>
+        <v>12.987012987012987</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <f>B5/754</f>
+        <v>13.262599469496021</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.45803240740740742</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.45803240740740742</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <f>B6/7594</f>
+        <v>13.168290755859889</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.49559027777777781</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.49560185185185185</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.4964351851851852</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.4964351851851852</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <f>B11/73</f>
+        <v>13.698630136986301</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.52673611111111118</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.52673611111111118</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.53530092592592593</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.53530092592592593</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12">
+        <f>B12/740</f>
+        <v>13.513513513513514</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.53903935185185181</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.53903935185185181</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <f>B13/7847</f>
+        <v>12.743723716069836</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.63431712962962961</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.63431712962962961</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.63512731481481477</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.63512731481481477</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18">
+        <f>B18/70</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.63704861111111111</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.63704861111111111</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.64563657407407404</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.64563657407407404</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <f>B19/742</f>
+        <v>13.477088948787062</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.95609953703703709</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.95609953703703709</v>
+      </c>
+      <c r="E20" s="8">
+        <v>5.6238425925925928E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20">
+        <f>B20/7478</f>
+        <v>13.372559507889811</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>